--- a/results/UNet_results.xlsx
+++ b/results/UNet_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,70 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.680603623390198</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>479</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.403079152107239</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>479</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/UNet_results.xlsx
+++ b/results/UNet_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,390 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.216467022895813</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.935261487960815</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10.89762783050537</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>256</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.063660860061646</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>256</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.05357483774423599</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4330041110515594</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>256</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.928130388259888</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4337684214115143</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>256</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7.758630275726318</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.93433952331543</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>256</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.360467404127121</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>256</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32</v>
+      </c>
+      <c r="H13" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10.99886512756348</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>256</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" t="n">
+        <v>32</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/UNet_results.xlsx
+++ b/results/UNet_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,6 +879,390 @@
         <v>100</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.300647497177124</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>256</v>
+      </c>
+      <c r="F15" t="n">
+        <v>479</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.660873055458069</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>256</v>
+      </c>
+      <c r="F16" t="n">
+        <v>479</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.843330383300781</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" t="n">
+        <v>479</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.748309850692749</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>256</v>
+      </c>
+      <c r="F18" t="n">
+        <v>479</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.817696809768677</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F19" t="n">
+        <v>479</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2.068458557128906</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>256</v>
+      </c>
+      <c r="F20" t="n">
+        <v>479</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2.069193363189697</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>256</v>
+      </c>
+      <c r="F21" t="n">
+        <v>479</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.842600107192993</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>256</v>
+      </c>
+      <c r="F22" t="n">
+        <v>479</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16</v>
+      </c>
+      <c r="H22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.543311595916748</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>256</v>
+      </c>
+      <c r="F23" t="n">
+        <v>479</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.828866481781006</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>256</v>
+      </c>
+      <c r="F24" t="n">
+        <v>479</v>
+      </c>
+      <c r="G24" t="n">
+        <v>32</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.523406505584717</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>256</v>
+      </c>
+      <c r="F25" t="n">
+        <v>479</v>
+      </c>
+      <c r="G25" t="n">
+        <v>32</v>
+      </c>
+      <c r="H25" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.030352830886841</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>256</v>
+      </c>
+      <c r="F26" t="n">
+        <v>479</v>
+      </c>
+      <c r="G26" t="n">
+        <v>32</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/UNet_results.xlsx
+++ b/results/UNet_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,6 +883,411 @@
         <v>274.35</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.655382990837097</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>479</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>10:49:53</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>229.73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.8245689868927</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>256</v>
+      </c>
+      <c r="F12" t="n">
+        <v>479</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>10:54:28</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.194447994232178</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>256</v>
+      </c>
+      <c r="F13" t="n">
+        <v>479</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>11:00:12</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>343.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.644671320915222</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>256</v>
+      </c>
+      <c r="F14" t="n">
+        <v>479</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>11:03:59</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>224.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.694337964057922</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>256</v>
+      </c>
+      <c r="F15" t="n">
+        <v>479</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>11:08:34</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>273.16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.030811786651611</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>256</v>
+      </c>
+      <c r="F16" t="n">
+        <v>479</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>11:14:20</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>344.65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.63050103187561</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" t="n">
+        <v>479</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>11:18:11</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>229.09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.676642179489136</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>256</v>
+      </c>
+      <c r="F18" t="n">
+        <v>479</v>
+      </c>
+      <c r="G18" t="n">
+        <v>32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>11:22:43</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>270.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.706821203231812</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F19" t="n">
+        <v>479</v>
+      </c>
+      <c r="G19" t="n">
+        <v>32</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>11:28:27</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>342.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
